--- a/src/main/resources/template/excel/export/deliverySumGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverySumGoods.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27570" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>ccm</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -160,8 +165,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -251,14 +257,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,24 +273,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -586,39 +595,39 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="14" width="12.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.875" customWidth="1"/>
-    <col min="18" max="18" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="14" width="12.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -637,28 +646,28 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="O2"/>
@@ -688,7 +697,7 @@
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -727,7 +736,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -741,7 +750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
